--- a/Configs/GameConfig/Datas/__enums__.xlsx
+++ b/Configs/GameConfig/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity_Shaw\TEngine4.0.12\Configs\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD08815-73A1-4070-9305-671B4D1D931F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E1535F-4664-49CD-BF1B-A6CE91F76E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -257,6 +257,14 @@
   </si>
   <si>
     <t>EPrincessType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZombieType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58:J60"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1150,10 +1158,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1161,24 +1166,94 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="H59" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>74</v>
+      <c r="H60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J60">
         <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
